--- a/ddSpaceStormD.xlsx
+++ b/ddSpaceStormD.xlsx
@@ -61,8 +61,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
